--- a/heart_rate_mointor/MI task3.xlsx
+++ b/heart_rate_mointor/MI task3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3rd year\Medical Instruments\Heart_Rate_Monitor\heart_rate_mointor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9532D97E-A6E2-49B4-8F4D-F2B4854B052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7AE34D-EE79-464C-8CEB-7973451E4F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6816" yWindow="1368" windowWidth="16224" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
